--- a/rozjazdy zbiorcze.xlsx
+++ b/rozjazdy zbiorcze.xlsx
@@ -5,21 +5,22 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KOKSZTYS\marzec\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\Desktop\KOKSZTYS\marzec\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10910"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="10905"/>
   </bookViews>
   <sheets>
-    <sheet name="rozjazdy" sheetId="1" r:id="rId1"/>
+    <sheet name="Arkusz1" sheetId="2" r:id="rId1"/>
+    <sheet name="rozjazdy 06.03" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="46">
   <si>
     <t>GRZEGORZ MIKITA</t>
   </si>
@@ -70,9 +71,6 @@
   </si>
   <si>
     <t>Ciepła 22, 59-220 Legnica</t>
-  </si>
-  <si>
-    <t>CHŁAPOWSKIEGO 6/8 LEGNICA // DMOWSKIEGO 14B/3, 59-220 LEGNICA</t>
   </si>
   <si>
     <t>trigon</t>
@@ -138,12 +136,110 @@
   <si>
     <t>alior</t>
   </si>
+  <si>
+    <t>F/2959/03/2018/1</t>
+  </si>
+  <si>
+    <t>Grzegorz Wolak</t>
+  </si>
+  <si>
+    <t>Wisznia Mała, Wąska 13a</t>
+  </si>
+  <si>
+    <t>foto inspekcja</t>
+  </si>
+  <si>
+    <t>wykonano 06.03</t>
+  </si>
+  <si>
+    <t>wizyta na dwóch adresach</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CHŁAPOWSKIEGO 6/8 LEGNICA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> // </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DMOWSKIEGO 14B/3, 59-220 LEGNICA // Drukarska 9/1</t>
+    </r>
+  </si>
+  <si>
+    <t>wykonano 09.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0003215091</t>
+  </si>
+  <si>
+    <t>51-180</t>
+  </si>
+  <si>
+    <t>WROCŁAW, GEODEZYJNA 19 </t>
+  </si>
+  <si>
+    <t>51-107</t>
+  </si>
+  <si>
+    <t>WROCŁAW,CHORWACKA 76/1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0005068626</t>
+  </si>
+  <si>
+    <t>50-443</t>
+  </si>
+  <si>
+    <t>WROCŁAW, GEN. PUŁASKIEGO 42A/18 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0004099372</t>
+  </si>
+  <si>
+    <t>51-116</t>
+  </si>
+  <si>
+    <t>WROCŁAW, ZAUŁEK ROGOZIŃSKI 7A/62 </t>
+  </si>
+  <si>
+    <t>! 16-20 !</t>
+  </si>
+  <si>
+    <t>ŚRODA ŚLĄSKA, LEGNICKA 31E/11 </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -311,6 +407,25 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <strike/>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -493,7 +608,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -608,6 +723,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -653,19 +783,51 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="8"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% — akcent 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -987,236 +1149,692 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.36328125" customWidth="1"/>
-    <col min="2" max="2" width="19.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="71.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1"/>
+      <c r="C1" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="11"/>
+      <c r="H1">
+        <v>35</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="F2" s="10"/>
+      <c r="H2">
+        <v>35</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="H3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5"/>
+      <c r="C5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="H5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C6" s="13"/>
+      <c r="D6" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" t="s">
         <v>23</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H6">
+        <v>90</v>
+      </c>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7">
+        <v>65</v>
+      </c>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17">
+        <v>3321737</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="13">
+        <v>3126734</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
         <v>24</v>
-      </c>
-      <c r="H1">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>3321563</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>3321743</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>3321566</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>3321641</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>3321691</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>3321737</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7">
-        <v>3126734</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7">
-        <v>32.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>3321729</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3126734</v>
-      </c>
-      <c r="F8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" t="s">
-        <v>25</v>
       </c>
       <c r="H8">
         <v>32.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9">
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17">
+        <v>3321729</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="13">
+        <v>3126734</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9">
+        <v>32.5</v>
+      </c>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17">
         <v>3010126</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F9" t="s">
+      <c r="E10" s="13"/>
+      <c r="F10" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9">
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10">
         <v>40</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="17">
+        <v>3321566</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11">
+        <v>30</v>
+      </c>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="17">
+        <v>3321641</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12">
+        <v>30</v>
+      </c>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="17">
+        <v>3321691</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13">
+        <v>30</v>
+      </c>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="17">
+        <v>3321563</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14">
+        <v>90</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="17">
+        <v>3321743</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15">
+        <v>90</v>
+      </c>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="17"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="I16" s="19"/>
+    </row>
+    <row r="17" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="17"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="I17" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="9"/>
+    </row>
+    <row r="2" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>3321737</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="3">
+        <v>3126734</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2">
+        <v>32.5</v>
+      </c>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>3321729</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="3">
+        <v>3126734</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3">
+        <v>32.5</v>
+      </c>
+      <c r="I3" s="7"/>
+      <c r="M3" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="I4" s="7"/>
+      <c r="M4" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>3010126</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5">
+        <v>40</v>
+      </c>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>3321566</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7">
+        <v>30</v>
+      </c>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>3321641</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8">
+        <v>30</v>
+      </c>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>3321691</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9">
+        <v>30</v>
+      </c>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11">
+        <v>90</v>
+      </c>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>3321563</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13">
+        <v>90</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>3321743</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14">
+        <v>90</v>
+      </c>
+      <c r="I14" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/rozjazdy zbiorcze.xlsx
+++ b/rozjazdy zbiorcze.xlsx
@@ -5,22 +5,23 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\Desktop\KOKSZTYS\marzec\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KOKSZTYS\marzec\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="10905"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25610" windowHeight="10910" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="2" r:id="rId1"/>
     <sheet name="rozjazdy 06.03" sheetId="3" r:id="rId2"/>
+    <sheet name="rozjazdy 12.03" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="97">
   <si>
     <t>GRZEGORZ MIKITA</t>
   </si>
@@ -234,12 +235,168 @@
   <si>
     <t>ŚRODA ŚLĄSKA, LEGNICKA 31E/11 </t>
   </si>
+  <si>
+    <t>Helena SKIBA</t>
+  </si>
+  <si>
+    <t>50-314</t>
+  </si>
+  <si>
+    <t>NOWOWIEJSKA 7/23 WROCŁAW</t>
+  </si>
+  <si>
+    <t>5220368,505220368,</t>
+  </si>
+  <si>
+    <t>2316.90</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>BOŻENA STANKIEWICZ</t>
+  </si>
+  <si>
+    <t>50-339</t>
+  </si>
+  <si>
+    <t>NOWOWIEJSKA 98/7 WROCŁAW</t>
+  </si>
+  <si>
+    <t>2515.65</t>
+  </si>
+  <si>
+    <t>Elżbieta DANAJ-ROJEWSKA</t>
+  </si>
+  <si>
+    <t>55-120</t>
+  </si>
+  <si>
+    <t>Kowale 4A/2, 55-120 Kowale</t>
+  </si>
+  <si>
+    <t>6405.11</t>
+  </si>
+  <si>
+    <t>RENATA ŁUSZCZYŃSKA</t>
+  </si>
+  <si>
+    <t>WROCISŁAWICE 19, 55-300 WROCISŁAWICE</t>
+  </si>
+  <si>
+    <t>13414.29</t>
+  </si>
+  <si>
+    <t>Miłosz Kadziewicz</t>
+  </si>
+  <si>
+    <t>51-678</t>
+  </si>
+  <si>
+    <t>Borelowskiego 10-12/1 WROCŁAW</t>
+  </si>
+  <si>
+    <t>168.96</t>
+  </si>
+  <si>
+    <t>392.41</t>
+  </si>
+  <si>
+    <t>Karolina SKRZYPCZYK</t>
+  </si>
+  <si>
+    <t>56-321</t>
+  </si>
+  <si>
+    <t>Łazy Małe 24, 56-321 Łazy Małe</t>
+  </si>
+  <si>
+    <t>2563.65</t>
+  </si>
+  <si>
+    <t>Paweł Kluz</t>
+  </si>
+  <si>
+    <t>55-011</t>
+  </si>
+  <si>
+    <t>Zacisze 15/2,  Siechnice</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> przed trzebnica</t>
+  </si>
+  <si>
+    <t>za środą</t>
+  </si>
+  <si>
+    <t>za czeszowem</t>
+  </si>
+  <si>
+    <t>F/0538/02/2018/1</t>
+  </si>
+  <si>
+    <t>Brzeg Dolny, Bolesława Leśmiana 15/2</t>
+  </si>
+  <si>
+    <t>Marcin Piotr Scheitza</t>
+  </si>
+  <si>
+    <t>4356971/K/3/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USŁUGI TRANSPORTOWE ŚLUSARZ KRZYSZTOF </t>
+  </si>
+  <si>
+    <t>LEGNICA, GALILEUSZA 10/2A</t>
+  </si>
+  <si>
+    <t>MARKA: BOVA
+TYP: FUTURA FHD 13.380
+ROK: 2006
+DL92605</t>
+  </si>
+  <si>
+    <t>odbior pojazdu</t>
+  </si>
+  <si>
+    <t>117759.74</t>
+  </si>
+  <si>
+    <t>4012631/K/3/2013</t>
+  </si>
+  <si>
+    <t>8618.78pln</t>
+  </si>
+  <si>
+    <t>"PINIA" KATARZYNA ROGÓŻ</t>
+  </si>
+  <si>
+    <t>SYCÓW, WIELOWIEŚ 1B</t>
+  </si>
+  <si>
+    <t>56-500</t>
+  </si>
+  <si>
+    <t>KGP774182668</t>
+  </si>
+  <si>
+    <t>Michał STRÓŻNIAK</t>
+  </si>
+  <si>
+    <t>WOJ. DOLNOSLASKIE, WROCŁAW, DOBRA 12 M.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 53-678</t>
+  </si>
+  <si>
+    <t>nest weryfikacja</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -426,6 +583,65 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -783,12 +999,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -806,28 +1021,148 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="8" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyFill="1"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% — akcent 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1149,382 +1484,696 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="71.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.36328125" customWidth="1"/>
+    <col min="2" max="2" width="30.08984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.81640625" customWidth="1"/>
+    <col min="4" max="4" width="60.90625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.54296875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="B1"/>
-      <c r="C1" s="10" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="H1">
+      <c r="E1" s="48"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33">
         <v>35</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="10" t="s">
+      <c r="B2" s="49"/>
+      <c r="C2" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="10"/>
-      <c r="H2">
+      <c r="E2" s="48"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33">
         <v>35</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="49"/>
+      <c r="C3" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="H3">
+      <c r="E3" s="48"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="10" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="30" t="s">
         <v>44</v>
       </c>
       <c r="H4">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="B5"/>
-      <c r="C5" s="10" t="s">
+      <c r="B5" s="33"/>
+      <c r="C5" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="H5">
+      <c r="E5" s="48"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33">
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+    <row r="6" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14" t="s">
+      <c r="C6" s="11"/>
+      <c r="D6" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
       <c r="G6" t="s">
         <v>23</v>
       </c>
       <c r="H6">
         <v>90</v>
       </c>
-      <c r="I6" s="7"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
       <c r="G7" t="s">
         <v>28</v>
       </c>
       <c r="H7">
         <v>65</v>
       </c>
-      <c r="I7" s="9"/>
-    </row>
-    <row r="8" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="38"/>
+      <c r="D8" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="44">
+        <v>783994010</v>
+      </c>
+      <c r="F8" s="38"/>
+      <c r="G8" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="33">
+        <v>65</v>
+      </c>
+      <c r="I8" s="13"/>
+    </row>
+    <row r="9" spans="1:13" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="H9" s="14">
+        <v>90</v>
+      </c>
+      <c r="I9" s="13"/>
+    </row>
+    <row r="10" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="16"/>
+      <c r="F10" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="G10" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10" s="14">
+        <v>90</v>
+      </c>
+      <c r="I10" s="13"/>
+    </row>
+    <row r="11" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" s="39"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="H11" s="41">
+        <v>35</v>
+      </c>
+      <c r="I11" s="13"/>
+    </row>
+    <row r="12" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="15">
         <v>3321737</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B12" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C12" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D12" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E12" s="11">
         <v>3126734</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F12" s="11" t="s">
         <v>14</v>
-      </c>
-      <c r="G8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8">
-        <v>32.5</v>
-      </c>
-      <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17">
-        <v>3321729</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="13">
-        <v>3126734</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9">
-        <v>32.5</v>
-      </c>
-      <c r="I9" s="7"/>
-    </row>
-    <row r="10" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17">
-        <v>3010126</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10">
-        <v>40</v>
-      </c>
-      <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17">
-        <v>3321566</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11">
-        <v>30</v>
-      </c>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17">
-        <v>3321641</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13" t="s">
-        <v>8</v>
       </c>
       <c r="G12" t="s">
         <v>24</v>
       </c>
       <c r="H12">
-        <v>30</v>
-      </c>
-      <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17">
-        <v>3321691</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13" t="s">
-        <v>13</v>
+        <v>32.5</v>
+      </c>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="15">
+        <v>3321729</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="11">
+        <v>3126734</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>5</v>
       </c>
       <c r="G13" t="s">
         <v>24</v>
       </c>
       <c r="H13">
-        <v>30</v>
-      </c>
-      <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17">
-        <v>3321563</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="13" t="s">
+        <v>32.5</v>
+      </c>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="15">
+        <v>3010126</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14">
+        <v>40</v>
+      </c>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="15">
+        <v>3321566</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G14" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14">
-        <v>90</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17">
-        <v>3321743</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13" t="s">
-        <v>15</v>
+      <c r="D15" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="G15" t="s">
         <v>24</v>
       </c>
       <c r="H15">
+        <v>30</v>
+      </c>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="15">
+        <v>3321641</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16">
+        <v>30</v>
+      </c>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="15">
+        <v>3321691</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17">
+        <v>30</v>
+      </c>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="15">
+        <v>3321563</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18">
         <v>90</v>
       </c>
-      <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="I16" s="19"/>
-    </row>
-    <row r="17" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="I17" s="19"/>
+      <c r="I18" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="15">
+        <v>3321743</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19">
+        <v>90</v>
+      </c>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="31">
+        <v>3282631</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="H20" s="33">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="31">
+        <v>3328176</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="G21" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="H21" s="33">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" s="20">
+        <v>3328103</v>
+      </c>
+      <c r="B22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22" t="s">
+        <v>51</v>
+      </c>
+      <c r="H22">
+        <v>65</v>
+      </c>
+      <c r="J22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" s="31">
+        <v>3328139</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="33">
+        <v>9027260</v>
+      </c>
+      <c r="F23" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="G23" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="H23" s="33">
+        <v>65</v>
+      </c>
+      <c r="J23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" s="31">
+        <v>3328089</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="G24" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="H24" s="33">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" s="31">
+        <v>3328178</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="H25" s="33">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26" s="20">
+        <v>3328155</v>
+      </c>
+      <c r="B26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26" t="s">
+        <v>71</v>
+      </c>
+      <c r="G26" t="s">
+        <v>51</v>
+      </c>
+      <c r="H26">
+        <v>90</v>
+      </c>
+      <c r="J26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27" s="31">
+        <v>3327123</v>
+      </c>
+      <c r="B27" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" s="33"/>
+      <c r="F27" s="35">
+        <v>26.37</v>
+      </c>
+      <c r="G27" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="H27" s="33">
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" s="31">
+        <v>3235994</v>
+      </c>
+      <c r="B28" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" s="33"/>
+      <c r="F28" s="35">
+        <v>1499.7</v>
+      </c>
+      <c r="G28" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="H28" s="33">
+        <v>32.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1536,51 +2185,51 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="34.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.1796875" style="1" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.453125" customWidth="1"/>
+    <col min="7" max="7" width="13.54296875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G1" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="9"/>
-    </row>
-    <row r="2" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="I1" s="8"/>
+    </row>
+    <row r="2" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
         <v>3321737</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>3126734</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G2" t="s">
@@ -1589,25 +2238,25 @@
       <c r="H2">
         <v>32.5</v>
       </c>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
         <v>3321729</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>3126734</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G3" t="s">
@@ -1616,38 +2265,38 @@
       <c r="H3">
         <v>32.5</v>
       </c>
-      <c r="I3" s="7"/>
-      <c r="M3" s="7" t="s">
+      <c r="I3" s="6"/>
+      <c r="M3" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="I4" s="7"/>
-      <c r="M4" s="9" t="s">
+    <row r="4" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="I4" s="6"/>
+      <c r="M4" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+    <row r="5" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
         <v>3010126</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3" t="s">
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G5" t="s">
@@ -1656,32 +2305,32 @@
       <c r="H5">
         <v>40</v>
       </c>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="I6" s="7"/>
-    </row>
-    <row r="7" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
         <v>3321566</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3" t="s">
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G7" t="s">
@@ -1690,23 +2339,23 @@
       <c r="H7">
         <v>30</v>
       </c>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
         <v>3321641</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3" t="s">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G8" t="s">
@@ -1715,23 +2364,23 @@
       <c r="H8">
         <v>30</v>
       </c>
-      <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
         <v>3321691</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3" t="s">
+      <c r="E9" s="2"/>
+      <c r="F9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G9" t="s">
@@ -1740,62 +2389,62 @@
       <c r="H9">
         <v>30</v>
       </c>
-      <c r="I9" s="7"/>
-    </row>
-    <row r="10" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="6" t="s">
+      <c r="C11" s="2"/>
+      <c r="D11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
       <c r="G11" t="s">
         <v>23</v>
       </c>
       <c r="H11">
         <v>90</v>
       </c>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="1:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="2"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
         <v>3321563</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3" t="s">
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G13" t="s">
@@ -1804,25 +2453,25 @@
       <c r="H13">
         <v>90</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="I13" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+    <row r="14" spans="1:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
         <v>3321743</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3" t="s">
+      <c r="E14" s="2"/>
+      <c r="F14" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G14" t="s">
@@ -1831,10 +2480,416 @@
       <c r="H14">
         <v>90</v>
       </c>
-      <c r="I14" s="7"/>
+      <c r="I14" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.453125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="26" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="26" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="50"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="26" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="53"/>
+      <c r="C3" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="26" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="50"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" ht="26" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="53"/>
+      <c r="C5" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="26" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="50"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" ht="26" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="61" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="56"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H7" s="14">
+        <v>35</v>
+      </c>
+      <c r="I7" s="13"/>
+    </row>
+    <row r="8" spans="1:9" ht="26" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="54"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="13"/>
+    </row>
+    <row r="9" spans="1:9" ht="26" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="55">
+        <v>3282631</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="26" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="55"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" ht="26" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="55">
+        <v>3328176</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="26" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="55"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" ht="26" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="55">
+        <v>3328089</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="26" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="55">
+        <v>3328178</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="26" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="55"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" ht="26" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="55">
+        <v>3327123</v>
+      </c>
+      <c r="B16" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="58">
+        <v>26.37</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H16">
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="55">
+        <v>3235994</v>
+      </c>
+      <c r="B17" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="58">
+        <v>1499.7</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17">
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="55"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="55">
+        <v>3328139</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="2">
+        <v>9027260</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H19">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="2"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="59"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="60">
+        <v>783994010</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D31" s="63"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>